--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="일반신용대출" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="주택담보대출" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="일반신용대출" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="주택담보대출" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,6 +943,3922 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>4.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>201802</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>201803</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>201804</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>201805</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>201806</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>201807</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>201808</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>201809</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>201810</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>201811</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>201812</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>202012</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>202102</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>202103</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>202104</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>202105</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>202106</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>202108</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>202109</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>202110</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>202111</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>202112</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>202201</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>202202</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>202203</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>202204</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>202205</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>202206</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>202207</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>202208</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>202210</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>202303</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>202401</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>202402</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>202404</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>202405</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>202407</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>202408</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>202409</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>202411</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>202412</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>202501</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>202502</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>202503</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>202504</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>202505</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>202506</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -957,7 +4873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +5393,3922 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>201802</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>201803</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>201804</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>201805</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>201806</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>201807</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>201808</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>201809</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>201810</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>201811</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>201812</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>202012</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>202102</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>202103</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>202104</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>202105</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>202106</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>202108</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>202109</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>202110</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>202111</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>202112</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>202201</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>202202</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>202203</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>202204</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>202205</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>202206</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>202207</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>202208</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>202210</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>202303</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>202401</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>202402</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>202404</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>202405</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>202407</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>202408</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>202409</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>202411</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>202412</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>202501</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>202502</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>202503</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>202504</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>202505</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>202506</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,6 +4859,50 @@
       <c r="N100" t="inlineStr">
         <is>
           <t>5.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202507</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,6 +9353,50 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202507</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201704</t>
+          <t>201705</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.41</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.01</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1817,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -1905,12 +1905,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.33</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3225,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.58</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.14</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4193,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.02</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.11</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4457,12 +4457,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4853,54 +4853,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA03051</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>일반신용대출 2)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202507</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>5.34</t>
         </is>
@@ -4917,7 +4873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5032,12 +4988,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201704</t>
+          <t>201705</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5032,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -5120,12 +5076,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5120,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -5208,12 +5164,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5208,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5252,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5296,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5340,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5384,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5472,12 +5428,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -5516,12 +5472,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5560,12 +5516,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -5604,12 +5560,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5604,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5692,12 +5648,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5692,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -5780,12 +5736,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5780,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5824,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5868,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5912,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -6000,12 +5956,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6000,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6044,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -6132,12 +6088,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6132,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -6220,12 +6176,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6264,12 +6220,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6308,12 +6264,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -6352,12 +6308,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6352,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6440,12 +6396,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6440,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6528,12 +6484,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6528,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6572,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6660,12 +6616,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -6704,12 +6660,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6704,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6792,12 +6748,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6792,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6836,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6924,12 +6880,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -6968,12 +6924,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -7012,12 +6968,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -7056,12 +7012,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7056,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7144,12 +7100,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -7188,12 +7144,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7188,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7232,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7276,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -7364,12 +7320,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -7408,12 +7364,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7408,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7452,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -7540,12 +7496,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -7584,12 +7540,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -7628,12 +7584,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7628,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7716,12 +7672,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -7760,12 +7716,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7760,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -7848,12 +7804,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -7892,12 +7848,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7892,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -7980,12 +7936,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -8024,12 +7980,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8024,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8112,12 +8068,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8112,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8156,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8200,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8244,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8288,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8332,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -8420,12 +8376,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8420,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -8508,12 +8464,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -8552,12 +8508,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8552,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -8640,12 +8596,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -8684,12 +8640,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8684,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8728,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8772,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8816,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -8904,12 +8860,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8904,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8948,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -9036,12 +8992,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9036,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9080,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9124,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -9212,12 +9168,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9256,12 +9212,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -9300,12 +9256,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -9344,54 +9300,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA0302</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>주택담보대출</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202507</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,6 +4859,50 @@
       <c r="N100" t="inlineStr">
         <is>
           <t>5.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202508</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5.41</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,6 +9353,50 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202508</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.41</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.01</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -1861,12 +1861,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.33</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3225,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.58</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.14</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.02</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4193,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.11</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -4457,12 +4457,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -4853,54 +4853,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA03051</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>일반신용대출 2)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202508</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
@@ -4917,7 +4873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5032,12 +4988,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5032,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5076,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -5164,12 +5120,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -5208,12 +5164,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5208,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5252,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5296,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5340,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5384,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -5472,12 +5428,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5516,12 +5472,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -5560,12 +5516,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5604,12 +5560,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5604,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -5692,12 +5648,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5692,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -5780,12 +5736,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5780,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5824,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5868,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5912,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -6000,12 +5956,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6000,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6044,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -6132,12 +6088,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6132,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6220,12 +6176,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6264,12 +6220,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -6308,12 +6264,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6308,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6396,12 +6352,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6396,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6440,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6528,12 +6484,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6528,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6572,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -6660,12 +6616,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6704,12 +6660,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6704,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -6792,12 +6748,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6792,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6836,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -6924,12 +6880,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -6968,12 +6924,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -7012,12 +6968,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7012,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7100,12 +7056,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7100,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -7188,12 +7144,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7188,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7232,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7276,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -7364,12 +7320,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -7408,12 +7364,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7408,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7452,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -7540,12 +7496,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -7584,12 +7540,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7584,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7672,12 +7628,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7672,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -7760,12 +7716,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7760,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -7848,12 +7804,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -7892,12 +7848,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7892,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -7980,12 +7936,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -8024,12 +7980,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8024,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -8112,12 +8068,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8112,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8156,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8200,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8244,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8288,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8332,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8420,12 +8376,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8420,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -8508,12 +8464,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
     </row>
@@ -8552,12 +8508,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8552,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -8640,12 +8596,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -8684,12 +8640,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8684,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8728,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8772,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8816,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -8904,12 +8860,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8904,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8948,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -9036,12 +8992,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9036,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9080,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9124,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9212,12 +9168,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -9256,12 +9212,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -9300,12 +9256,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -9344,54 +9300,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA0302</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>주택담보대출</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202508</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,6 +4859,50 @@
       <c r="N100" t="inlineStr">
         <is>
           <t>5.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202509</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,6 +9353,50 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202509</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.01</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -1817,12 +1817,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.33</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3225,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.58</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.14</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.02</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.11</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4193,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
@@ -4457,12 +4457,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.41</t>
         </is>
       </c>
     </row>
@@ -4853,54 +4853,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA03051</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>일반신용대출 2)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202509</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
@@ -4917,7 +4873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5032,12 +4988,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5032,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -5120,12 +5076,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5120,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -5208,12 +5164,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5208,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5252,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5296,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5340,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5384,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5472,12 +5428,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -5516,12 +5472,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5560,12 +5516,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5604,12 +5560,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5604,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -5692,12 +5648,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5692,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5780,12 +5736,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5780,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5824,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5868,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5912,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -6000,12 +5956,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6000,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6044,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -6132,12 +6088,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6132,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6220,12 +6176,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -6264,12 +6220,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6308,7 +6264,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6352,12 +6308,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6396,12 +6352,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6396,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6440,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -6528,12 +6484,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6528,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6572,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6660,12 +6616,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6704,12 +6660,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6704,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6792,12 +6748,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6792,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6836,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -6924,12 +6880,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -6968,12 +6924,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -7012,7 +6968,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7056,12 +7012,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -7100,12 +7056,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7100,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7188,12 +7144,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7188,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7232,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7276,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -7364,12 +7320,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -7408,12 +7364,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7408,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7452,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -7540,12 +7496,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7540,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7628,12 +7584,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -7672,12 +7628,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7672,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -7760,12 +7716,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7760,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -7848,12 +7804,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -7892,12 +7848,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7892,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -7980,12 +7936,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8024,12 +7980,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8024,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -8112,12 +8068,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8112,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8156,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8200,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8244,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8288,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8332,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -8420,12 +8376,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8420,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
     </row>
@@ -8508,12 +8464,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -8552,12 +8508,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8552,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -8640,12 +8596,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -8684,12 +8640,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8684,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8728,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8772,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8816,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -8904,12 +8860,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8904,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8948,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -9036,12 +8992,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9036,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9080,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9124,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -9212,12 +9168,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -9256,12 +9212,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9256,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9344,54 +9300,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA0302</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>주택담보대출</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202509</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,6 +4859,50 @@
       <c r="N100" t="inlineStr">
         <is>
           <t>5.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202510</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5.19</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,6 +9353,50 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202510</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.01</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -1773,12 +1773,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1817,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.33</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3225,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.58</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.14</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.02</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.11</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4193,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -4457,12 +4457,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.41</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -4853,54 +4853,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202509</t>
+          <t>202510</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA03051</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>일반신용대출 2)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202510</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>5.19</t>
         </is>
@@ -4917,7 +4873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5032,7 +4988,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -5076,12 +5032,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -5120,12 +5076,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5120,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -5208,12 +5164,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5208,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5252,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5296,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5340,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5384,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -5472,12 +5428,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5516,12 +5472,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5560,12 +5516,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -5604,12 +5560,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5604,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -5692,12 +5648,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5692,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -5780,12 +5736,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5780,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5824,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5868,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5912,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -6000,12 +5956,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6000,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6044,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6132,12 +6088,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6132,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -6220,12 +6176,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6220,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6308,12 +6264,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6352,12 +6308,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6396,12 +6352,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6396,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6440,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6528,12 +6484,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6528,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6572,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6660,12 +6616,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -6704,12 +6660,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6704,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6792,12 +6748,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6792,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6836,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -6924,12 +6880,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -6968,7 +6924,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7012,12 +6968,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -7056,12 +7012,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -7100,12 +7056,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7100,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -7188,12 +7144,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7188,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7232,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7276,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -7364,12 +7320,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -7408,12 +7364,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7408,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7452,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7540,7 +7496,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -7584,12 +7540,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -7628,12 +7584,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -7672,12 +7628,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7672,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -7760,12 +7716,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7760,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -7848,12 +7804,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -7892,12 +7848,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7892,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -7980,12 +7936,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -8024,12 +7980,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8024,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -8112,12 +8068,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8112,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8156,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8200,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8244,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8288,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8332,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -8420,12 +8376,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8420,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -8508,12 +8464,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -8552,12 +8508,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8552,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -8640,12 +8596,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -8684,12 +8640,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8684,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8728,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8772,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8816,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -8904,12 +8860,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8904,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8948,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -9036,12 +8992,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9036,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9080,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9124,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -9212,12 +9168,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9212,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9300,7 +9256,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9344,54 +9300,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202509</t>
+          <t>202510</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA0302</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>주택담보대출</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202510</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,6 +4859,50 @@
       <c r="N100" t="inlineStr">
         <is>
           <t>5.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202511</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,6 +9353,50 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202511</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.01</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1729,12 +1729,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1817,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.33</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3225,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.58</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.14</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.02</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.11</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4193,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -4457,12 +4457,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.41</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202509</t>
+          <t>202510</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.19</t>
         </is>
       </c>
     </row>
@@ -4853,54 +4853,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202510</t>
+          <t>202511</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA03051</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>일반신용대출 2)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202511</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
@@ -4917,7 +4873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5032,12 +4988,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5032,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -5120,12 +5076,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5120,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5208,12 +5164,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5208,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5252,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5296,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5340,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5384,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5472,12 +5428,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5516,12 +5472,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -5560,12 +5516,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -5604,12 +5560,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5604,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5692,12 +5648,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5692,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -5780,12 +5736,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5780,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5824,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5868,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5912,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -6000,12 +5956,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6000,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6044,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6132,12 +6088,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6132,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6220,7 +6176,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6264,12 +6220,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6308,12 +6264,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6352,12 +6308,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6396,12 +6352,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6396,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6440,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -6528,12 +6484,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6528,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6572,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -6660,12 +6616,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6704,12 +6660,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6704,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -6792,12 +6748,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6792,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6836,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6880,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6968,12 +6924,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -7012,12 +6968,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -7056,12 +7012,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7100,12 +7056,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7100,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -7188,12 +7144,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7188,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7232,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7276,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -7364,12 +7320,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -7408,12 +7364,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7408,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7452,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -7540,12 +7496,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -7584,12 +7540,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -7628,12 +7584,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -7672,12 +7628,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7672,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -7760,12 +7716,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7760,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -7848,12 +7804,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -7892,12 +7848,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7892,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -7980,12 +7936,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -8024,12 +7980,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8024,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -8112,12 +8068,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8112,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8156,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8200,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8244,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8288,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8332,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
     </row>
@@ -8420,12 +8376,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8420,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -8508,12 +8464,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -8552,12 +8508,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8552,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -8640,12 +8596,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8684,12 +8640,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8684,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8728,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8772,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8816,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -8904,12 +8860,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8904,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8948,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -9036,12 +8992,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9036,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9080,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9124,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9168,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9256,7 +9212,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9300,12 +9256,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202509</t>
+          <t>202510</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9344,54 +9300,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202510</t>
+          <t>202511</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA0302</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>주택담보대출</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202511</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>4.17</t>
         </is>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -18,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,21 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,72 +423,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>STAT_CODE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>STAT_NAME</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>ITEM_CODE1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ITEM_NAME1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>ITEM_CODE2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>ITEM_NAME2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ITEM_CODE3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>ITEM_NAME3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ITEM_CODE4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>ITEM_NAME4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>UNIT_NAME</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>WGT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>TIME</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>DATA_VALUE</t>
         </is>
@@ -4882,72 +4870,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>STAT_CODE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>STAT_NAME</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>ITEM_CODE1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ITEM_NAME1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>ITEM_CODE2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>ITEM_NAME2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ITEM_CODE3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>ITEM_NAME3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ITEM_CODE4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>ITEM_NAME4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>UNIT_NAME</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>WGT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>TIME</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>DATA_VALUE</t>
         </is>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4847,6 +4847,50 @@
       <c r="N100" t="inlineStr">
         <is>
           <t>5.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA03051</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>일반신용대출 2)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202512</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9297,6 +9341,50 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>121Y006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BECBLA0302</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>주택담보대출</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>연리%</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>202512</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/loan_data.xlsx
+++ b/output/loan_data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -617,12 +617,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -793,12 +793,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1013,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1145,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1453,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1673,12 +1673,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1893,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2069,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -2157,12 +2157,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -2245,12 +2245,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2377,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2729,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.33</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -2905,12 +2905,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2993,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -3257,12 +3257,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -3345,12 +3345,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3653,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.81</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -3785,12 +3785,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.58</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -3917,12 +3917,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.14</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.02</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.11</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4049,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4225,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4269,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -4445,12 +4445,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -4489,12 +4489,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.28</t>
         </is>
       </c>
     </row>
@@ -4533,12 +4533,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -4577,12 +4577,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -4665,12 +4665,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.41</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4709,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202509</t>
+          <t>202510</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.19</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202510</t>
+          <t>202511</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -4841,54 +4841,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202511</t>
+          <t>202512</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA03051</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>일반신용대출 2)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202512</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>5.87</t>
         </is>
@@ -4905,7 +4861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5020,12 +4976,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -5064,12 +5020,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -5108,12 +5064,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -5152,12 +5108,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5196,12 +5152,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5240,12 +5196,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -5284,12 +5240,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -5328,12 +5284,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -5372,12 +5328,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5372,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -5460,12 +5416,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -5504,12 +5460,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -5548,12 +5504,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -5592,12 +5548,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -5636,12 +5592,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -5680,12 +5636,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -5724,12 +5680,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -5768,12 +5724,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -5812,12 +5768,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -5856,12 +5812,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -5900,12 +5856,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -5944,12 +5900,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5944,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6032,12 +5988,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6076,12 +6032,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -6120,12 +6076,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6120,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6208,12 +6164,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -6252,12 +6208,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6296,12 +6252,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -6340,12 +6296,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -6384,12 +6340,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -6428,12 +6384,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -6472,12 +6428,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -6516,12 +6472,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -6560,12 +6516,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -6604,12 +6560,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -6648,12 +6604,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -6692,12 +6648,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6692,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -6780,12 +6736,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -6824,12 +6780,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6824,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6912,12 +6868,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -6956,12 +6912,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -7000,12 +6956,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -7044,12 +7000,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -7088,12 +7044,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -7132,12 +7088,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -7176,12 +7132,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -7220,12 +7176,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -7264,12 +7220,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -7308,12 +7264,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -7352,12 +7308,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7352,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7396,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -7484,12 +7440,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -7528,12 +7484,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -7572,12 +7528,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -7616,12 +7572,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7616,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -7704,12 +7660,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -7748,12 +7704,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -7792,12 +7748,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7792,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -7880,12 +7836,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7880,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -7968,12 +7924,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
     </row>
@@ -8012,12 +7968,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -8056,12 +8012,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -8100,12 +8056,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
     </row>
@@ -8144,12 +8100,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -8188,12 +8144,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -8232,12 +8188,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -8276,12 +8232,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -8320,12 +8276,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
     </row>
@@ -8364,12 +8320,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -8408,12 +8364,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -8452,12 +8408,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -8496,12 +8452,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -8540,12 +8496,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -8584,12 +8540,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -8628,12 +8584,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -8672,12 +8628,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -8716,12 +8672,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -8760,12 +8716,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -8804,12 +8760,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>202411</t>
+          <t>202412</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -8848,12 +8804,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202501</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -8892,12 +8848,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>202501</t>
+          <t>202502</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -8936,12 +8892,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>202502</t>
+          <t>202503</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -8980,12 +8936,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>202503</t>
+          <t>202504</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9024,12 +8980,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>202504</t>
+          <t>202505</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.87</t>
         </is>
       </c>
     </row>
@@ -9068,12 +9024,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>202505</t>
+          <t>202506</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -9112,12 +9068,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>202506</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9112,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9200,7 +9156,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>202508</t>
+          <t>202509</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9244,12 +9200,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>202509</t>
+          <t>202510</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -9288,12 +9244,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>202510</t>
+          <t>202511</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -9332,54 +9288,10 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>202511</t>
+          <t>202512</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>121Y006</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.3.3.2.1. 예금은행 대출금리(신규취급액 기준)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BECBLA0302</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>주택담보대출</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>연리%</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>202512</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
